--- a/data/HAB_resolvablelakes_2023.xlsx
+++ b/data/HAB_resolvablelakes_2023.xlsx
@@ -1,122 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\deqhq1\WQ-Share\Harmful Algal Blooms Coordination Team\HAB_Shiny_app\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7287BC8-2ACE-44C1-9472-4854D759F1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-13068" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="HAB_resolvable_lake_data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>GNISIDNAME</t>
-  </si>
-  <si>
-    <t>COUNT</t>
-  </si>
-  <si>
-    <t>AREA</t>
-  </si>
-  <si>
-    <t>MIN_cellsml</t>
-  </si>
-  <si>
-    <t>MAX_cellsml</t>
-  </si>
-  <si>
-    <t>RANGE_cellsml</t>
-  </si>
-  <si>
-    <t>MEAN_cellsml</t>
-  </si>
-  <si>
-    <t>STD_cellsml</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Odell Lake_01147159</t>
-  </si>
-  <si>
-    <t>Lake Owyhee_01125099</t>
-  </si>
-  <si>
-    <t>Brownlee Reservoir_00378278</t>
-  </si>
-  <si>
-    <t>Alkali Lake_01116863</t>
-  </si>
-  <si>
-    <t>Gerber Reservoir_01121105</t>
-  </si>
-  <si>
-    <t>Crater Lake_01163669</t>
-  </si>
-  <si>
-    <t>Upper Klamath Lake_01151685</t>
-  </si>
-  <si>
-    <t>Goose Lake_00224325</t>
-  </si>
-  <si>
-    <t>McKay Reservoir_01132097</t>
-  </si>
-  <si>
-    <t>Lake Billy Chinook_01138120</t>
-  </si>
-  <si>
-    <t>Paulina Lake_01147502</t>
-  </si>
-  <si>
-    <t>Henry Hagg Lake_01158095</t>
-  </si>
-  <si>
-    <t>Waldo Lake_01151818</t>
-  </si>
-  <si>
-    <t>Timothy Lake_01151253</t>
-  </si>
-  <si>
-    <t>Detroit Lake_01639301</t>
-  </si>
-  <si>
-    <t>Siltcoos Lake_01158483</t>
-  </si>
-  <si>
-    <t>Crump Lake_01119601</t>
-  </si>
-  <si>
-    <t>Lake Abert_01116755</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,14 +67,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -219,7 +113,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,27 +145,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,24 +179,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -496,66 +354,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>12</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>GNISIDNAME</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>COUNT</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AREA</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MIN_cellsml</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MAX_cellsml</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RANGE_cellsml</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MEAN_cellsml</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>STD_cellsml</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Lake Owyhee_01125099</t>
+        </is>
       </c>
       <c r="B2">
         <v>344</v>
@@ -564,16 +434,16 @@
         <v>30960000</v>
       </c>
       <c r="D2">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="E2">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -588,9 +458,11 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Brownlee Reservoir_00378278</t>
+        </is>
       </c>
       <c r="B3">
         <v>330</v>
@@ -599,16 +471,16 @@
         <v>29700000</v>
       </c>
       <c r="D3">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="E3">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -623,9 +495,11 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Alkali Lake_01116863</t>
+        </is>
       </c>
       <c r="B4">
         <v>29</v>
@@ -634,16 +508,16 @@
         <v>2610000</v>
       </c>
       <c r="D4">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="E4">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -658,9 +532,11 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>15</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Gerber Reservoir_01121105</t>
+        </is>
       </c>
       <c r="B5">
         <v>13</v>
@@ -669,16 +545,16 @@
         <v>1170000</v>
       </c>
       <c r="D5">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="E5">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -693,9 +569,11 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>16</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Crater Lake_01163669</t>
+        </is>
       </c>
       <c r="B6">
         <v>544</v>
@@ -704,16 +582,16 @@
         <v>48960000</v>
       </c>
       <c r="D6">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="E6">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -728,9 +606,11 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>17</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Upper Klamath Lake_01151685</t>
+        </is>
       </c>
       <c r="B7">
         <v>2747</v>
@@ -739,7 +619,7 @@
         <v>247230000</v>
       </c>
       <c r="D7">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="E7">
         <v>124738.414062</v>
@@ -748,10 +628,10 @@
         <v>118428.837402</v>
       </c>
       <c r="G7">
-        <v>6511.2004603400001</v>
+        <v>6511.20046034</v>
       </c>
       <c r="H7">
-        <v>3546.7363809499998</v>
+        <v>3546.73638095</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -763,9 +643,11 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>18</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Goose Lake_00224325</t>
+        </is>
       </c>
       <c r="B8">
         <v>58</v>
@@ -774,16 +656,16 @@
         <v>5220000</v>
       </c>
       <c r="D8">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="E8">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -798,9 +680,11 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>19</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>McKay Reservoir_01132097</t>
+        </is>
       </c>
       <c r="B9">
         <v>25</v>
@@ -809,16 +693,16 @@
         <v>2250000</v>
       </c>
       <c r="D9">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="E9">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -833,9 +717,11 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>20</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Lake Billy Chinook_01138120</t>
+        </is>
       </c>
       <c r="B10">
         <v>64</v>
@@ -844,7 +730,7 @@
         <v>5760000</v>
       </c>
       <c r="D10">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="E10">
         <v>69823.296875</v>
@@ -853,10 +739,10 @@
         <v>63513.7202148</v>
       </c>
       <c r="G10">
-        <v>8813.2234497099998</v>
+        <v>8813.22344971</v>
       </c>
       <c r="H10">
-        <v>11358.129998099999</v>
+        <v>11358.1299981</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -868,9 +754,11 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Odell Lake_01147159</t>
+        </is>
       </c>
       <c r="B11">
         <v>75</v>
@@ -879,16 +767,16 @@
         <v>6750000</v>
       </c>
       <c r="D11">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="E11">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -903,9 +791,11 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>21</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Paulina Lake_01147502</t>
+        </is>
       </c>
       <c r="B12">
         <v>58</v>
@@ -914,16 +804,16 @@
         <v>5220000</v>
       </c>
       <c r="D12">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="E12">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -938,9 +828,11 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>22</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Henry Hagg Lake_01158095</t>
+        </is>
       </c>
       <c r="B13">
         <v>32</v>
@@ -949,16 +841,16 @@
         <v>2880000</v>
       </c>
       <c r="D13">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="E13">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -973,9 +865,11 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>23</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Waldo Lake_01151818</t>
+        </is>
       </c>
       <c r="B14">
         <v>244</v>
@@ -984,16 +878,16 @@
         <v>21960000</v>
       </c>
       <c r="D14">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="E14">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1008,9 +902,11 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>24</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Timothy Lake_01151253</t>
+        </is>
       </c>
       <c r="B15">
         <v>4</v>
@@ -1019,16 +915,16 @@
         <v>360000</v>
       </c>
       <c r="D15">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="E15">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1043,9 +939,11 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>25</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Detroit Lake_01639301</t>
+        </is>
       </c>
       <c r="B16">
         <v>5</v>
@@ -1054,16 +952,16 @@
         <v>450000</v>
       </c>
       <c r="D16">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="E16">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1078,9 +976,11 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>26</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Siltcoos Lake_01158483</t>
+        </is>
       </c>
       <c r="B17">
         <v>112</v>
@@ -1089,7 +989,7 @@
         <v>10080000</v>
       </c>
       <c r="D17">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="E17">
         <v>1419058.125</v>
@@ -1098,10 +998,10 @@
         <v>1412748.54834</v>
       </c>
       <c r="G17">
-        <v>342842.46060599998</v>
+        <v>342842.460606</v>
       </c>
       <c r="H17">
-        <v>311190.76863599999</v>
+        <v>311190.768636</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1113,9 +1013,11 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>27</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Crump Lake_01119601</t>
+        </is>
       </c>
       <c r="B18">
         <v>36</v>
@@ -1124,19 +1026,19 @@
         <v>3240000</v>
       </c>
       <c r="D18">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="E18">
-        <v>7870.4653320300004</v>
+        <v>7870.46533203</v>
       </c>
       <c r="F18">
-        <v>1560.8886718799999</v>
+        <v>1560.88867188</v>
       </c>
       <c r="G18">
         <v>6352.93467882</v>
       </c>
       <c r="H18">
-        <v>256.50949764900002</v>
+        <v>256.509497649</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1148,9 +1050,11 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>28</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Lake Abert_01116755</t>
+        </is>
       </c>
       <c r="B19">
         <v>3</v>
@@ -1159,16 +1063,16 @@
         <v>270000</v>
       </c>
       <c r="D19">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="E19">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>6309.5766601599998</v>
+        <v>6309.57666016</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1181,6 +1085,4261 @@
       </c>
       <c r="K19" s="2">
         <v>44927</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Lake Owyhee_01125099</t>
+        </is>
+      </c>
+      <c r="B20">
+        <v>309</v>
+      </c>
+      <c r="C20">
+        <v>27810000</v>
+      </c>
+      <c r="D20">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E20">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>2023</v>
+      </c>
+      <c r="K20" s="2">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Brownlee Reservoir_00378278</t>
+        </is>
+      </c>
+      <c r="B21">
+        <v>62</v>
+      </c>
+      <c r="C21">
+        <v>5580000</v>
+      </c>
+      <c r="D21">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E21">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>2023</v>
+      </c>
+      <c r="K21" s="2">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Wallowa Lake_01151862</t>
+        </is>
+      </c>
+      <c r="B22">
+        <v>37</v>
+      </c>
+      <c r="C22">
+        <v>3330000</v>
+      </c>
+      <c r="D22">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E22">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>2023</v>
+      </c>
+      <c r="K22" s="2">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Paulina Lake_01147502</t>
+        </is>
+      </c>
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>1170000</v>
+      </c>
+      <c r="D23">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E23">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>2023</v>
+      </c>
+      <c r="K23" s="2">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Timothy Lake_01151253</t>
+        </is>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>1800000</v>
+      </c>
+      <c r="D24">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E24">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>2023</v>
+      </c>
+      <c r="K24" s="2">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Detroit Lake_01639301</t>
+        </is>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>180000</v>
+      </c>
+      <c r="D25">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E25">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>2023</v>
+      </c>
+      <c r="K25" s="2">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Crump Lake_01119601</t>
+        </is>
+      </c>
+      <c r="B26">
+        <v>55</v>
+      </c>
+      <c r="C26">
+        <v>4950000</v>
+      </c>
+      <c r="D26">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E26">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>2023</v>
+      </c>
+      <c r="K26" s="2">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Lake Abert_01116755</t>
+        </is>
+      </c>
+      <c r="B27">
+        <v>652</v>
+      </c>
+      <c r="C27">
+        <v>58680000</v>
+      </c>
+      <c r="D27">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E27">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>2023</v>
+      </c>
+      <c r="K27" s="2">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Brownlee Reservoir_00378278</t>
+        </is>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>810000</v>
+      </c>
+      <c r="D28">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E28">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>2023</v>
+      </c>
+      <c r="K28" s="2">
+        <v>44929</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Lake Billy Chinook_01138120</t>
+        </is>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>720000</v>
+      </c>
+      <c r="D29">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E29">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>2023</v>
+      </c>
+      <c r="K29" s="2">
+        <v>44929</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Paulina Lake_01147502</t>
+        </is>
+      </c>
+      <c r="B30">
+        <v>43</v>
+      </c>
+      <c r="C30">
+        <v>3870000</v>
+      </c>
+      <c r="D30">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E30">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>2023</v>
+      </c>
+      <c r="K30" s="2">
+        <v>44929</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Lake Umatilla_01513298</t>
+        </is>
+      </c>
+      <c r="B31">
+        <v>269</v>
+      </c>
+      <c r="C31">
+        <v>24210000</v>
+      </c>
+      <c r="D31">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E31">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>2023</v>
+      </c>
+      <c r="K31" s="2">
+        <v>44929</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Timothy Lake_01151253</t>
+        </is>
+      </c>
+      <c r="B32">
+        <v>37</v>
+      </c>
+      <c r="C32">
+        <v>3330000</v>
+      </c>
+      <c r="D32">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E32">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <v>2023</v>
+      </c>
+      <c r="K32" s="2">
+        <v>44929</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Detroit Lake_01639301</t>
+        </is>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>2790000</v>
+      </c>
+      <c r="D33">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E33">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>2023</v>
+      </c>
+      <c r="K33" s="2">
+        <v>44929</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Summer Lake_01150595</t>
+        </is>
+      </c>
+      <c r="B34">
+        <v>81</v>
+      </c>
+      <c r="C34">
+        <v>7290000</v>
+      </c>
+      <c r="D34">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E34">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <v>2023</v>
+      </c>
+      <c r="K34" s="2">
+        <v>44929</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Lake Abert_01116755</t>
+        </is>
+      </c>
+      <c r="B35">
+        <v>289</v>
+      </c>
+      <c r="C35">
+        <v>26010000</v>
+      </c>
+      <c r="D35">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E35">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <v>2023</v>
+      </c>
+      <c r="K35" s="2">
+        <v>44929</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Willamette River (Sellwood Brg to Willamette Falls)</t>
+        </is>
+      </c>
+      <c r="B36">
+        <v>19</v>
+      </c>
+      <c r="C36">
+        <v>1710000</v>
+      </c>
+      <c r="D36">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E36">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>2023</v>
+      </c>
+      <c r="K36" s="2">
+        <v>44929</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Wallowa Lake_01151862</t>
+        </is>
+      </c>
+      <c r="B37">
+        <v>19</v>
+      </c>
+      <c r="C37">
+        <v>1710000</v>
+      </c>
+      <c r="D37">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E37">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
+      <c r="J37">
+        <v>2023</v>
+      </c>
+      <c r="K37" s="2">
+        <v>44930</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Lake Owyhee_01125099</t>
+        </is>
+      </c>
+      <c r="B38">
+        <v>179</v>
+      </c>
+      <c r="C38">
+        <v>16110000</v>
+      </c>
+      <c r="D38">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E38">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <v>2023</v>
+      </c>
+      <c r="K38" s="2">
+        <v>44931</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Lake Owyhee_01125099</t>
+        </is>
+      </c>
+      <c r="B39">
+        <v>259</v>
+      </c>
+      <c r="C39">
+        <v>23310000</v>
+      </c>
+      <c r="D39">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E39">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>6</v>
+      </c>
+      <c r="J39">
+        <v>2023</v>
+      </c>
+      <c r="K39" s="2">
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Wallowa Lake_01151862</t>
+        </is>
+      </c>
+      <c r="B40">
+        <v>61</v>
+      </c>
+      <c r="C40">
+        <v>5490000</v>
+      </c>
+      <c r="D40">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E40">
+        <v>64268.7851562</v>
+      </c>
+      <c r="F40">
+        <v>57959.2084961</v>
+      </c>
+      <c r="G40">
+        <v>10506.8136447</v>
+      </c>
+      <c r="H40">
+        <v>12905.0457349</v>
+      </c>
+      <c r="I40">
+        <v>6</v>
+      </c>
+      <c r="J40">
+        <v>2023</v>
+      </c>
+      <c r="K40" s="2">
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Malheur Lake_01123710</t>
+        </is>
+      </c>
+      <c r="B41">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>1080000</v>
+      </c>
+      <c r="D41">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E41">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>6</v>
+      </c>
+      <c r="J41">
+        <v>2023</v>
+      </c>
+      <c r="K41" s="2">
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>McKay Reservoir_01132097</t>
+        </is>
+      </c>
+      <c r="B42">
+        <v>19</v>
+      </c>
+      <c r="C42">
+        <v>1710000</v>
+      </c>
+      <c r="D42">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E42">
+        <v>71779.4609375</v>
+      </c>
+      <c r="F42">
+        <v>65469.8842773</v>
+      </c>
+      <c r="G42">
+        <v>14942.4729389</v>
+      </c>
+      <c r="H42">
+        <v>18550.9554916</v>
+      </c>
+      <c r="I42">
+        <v>6</v>
+      </c>
+      <c r="J42">
+        <v>2023</v>
+      </c>
+      <c r="K42" s="2">
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Crescent Lake_01158186</t>
+        </is>
+      </c>
+      <c r="B43">
+        <v>22</v>
+      </c>
+      <c r="C43">
+        <v>1980000</v>
+      </c>
+      <c r="D43">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E43">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>6</v>
+      </c>
+      <c r="J43">
+        <v>2023</v>
+      </c>
+      <c r="K43" s="2">
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Cold Springs Reservoir_01119125</t>
+        </is>
+      </c>
+      <c r="B44">
+        <v>22</v>
+      </c>
+      <c r="C44">
+        <v>1980000</v>
+      </c>
+      <c r="D44">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E44">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>6</v>
+      </c>
+      <c r="J44">
+        <v>2023</v>
+      </c>
+      <c r="K44" s="2">
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Lake Umatilla_01513298</t>
+        </is>
+      </c>
+      <c r="B45">
+        <v>47</v>
+      </c>
+      <c r="C45">
+        <v>4230000</v>
+      </c>
+      <c r="D45">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E45">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>6</v>
+      </c>
+      <c r="J45">
+        <v>2023</v>
+      </c>
+      <c r="K45" s="2">
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Timothy Lake_01151253</t>
+        </is>
+      </c>
+      <c r="B46">
+        <v>36</v>
+      </c>
+      <c r="C46">
+        <v>3240000</v>
+      </c>
+      <c r="D46">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E46">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>6</v>
+      </c>
+      <c r="J46">
+        <v>2023</v>
+      </c>
+      <c r="K46" s="2">
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Swamp Lake_01127802</t>
+        </is>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>270000</v>
+      </c>
+      <c r="D47">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E47">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>6</v>
+      </c>
+      <c r="J47">
+        <v>2023</v>
+      </c>
+      <c r="K47" s="2">
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Lake Abert_01116755</t>
+        </is>
+      </c>
+      <c r="B48">
+        <v>169</v>
+      </c>
+      <c r="C48">
+        <v>15210000</v>
+      </c>
+      <c r="D48">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E48">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>6</v>
+      </c>
+      <c r="J48">
+        <v>2023</v>
+      </c>
+      <c r="K48" s="2">
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Brownlee Reservoir_00378278</t>
+        </is>
+      </c>
+      <c r="B49">
+        <v>58</v>
+      </c>
+      <c r="C49">
+        <v>5220000</v>
+      </c>
+      <c r="D49">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E49">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>7</v>
+      </c>
+      <c r="J49">
+        <v>2023</v>
+      </c>
+      <c r="K49" s="2">
+        <v>44933</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Upper Klamath Lake_01151685</t>
+        </is>
+      </c>
+      <c r="B50">
+        <v>886</v>
+      </c>
+      <c r="C50">
+        <v>79740000</v>
+      </c>
+      <c r="D50">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E50">
+        <v>25118.8691406</v>
+      </c>
+      <c r="F50">
+        <v>18809.2924805</v>
+      </c>
+      <c r="G50">
+        <v>6425.33227484</v>
+      </c>
+      <c r="H50">
+        <v>1280.25954398</v>
+      </c>
+      <c r="I50">
+        <v>7</v>
+      </c>
+      <c r="J50">
+        <v>2023</v>
+      </c>
+      <c r="K50" s="2">
+        <v>44933</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Davis Lake_01140666</t>
+        </is>
+      </c>
+      <c r="B51">
+        <v>18</v>
+      </c>
+      <c r="C51">
+        <v>1620000</v>
+      </c>
+      <c r="D51">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E51">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>7</v>
+      </c>
+      <c r="J51">
+        <v>2023</v>
+      </c>
+      <c r="K51" s="2">
+        <v>44933</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Odell Lake_01147159</t>
+        </is>
+      </c>
+      <c r="B52">
+        <v>97</v>
+      </c>
+      <c r="C52">
+        <v>8730000</v>
+      </c>
+      <c r="D52">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E52">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>7</v>
+      </c>
+      <c r="J52">
+        <v>2023</v>
+      </c>
+      <c r="K52" s="2">
+        <v>44933</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Crescent Lake_01158186</t>
+        </is>
+      </c>
+      <c r="B53">
+        <v>45</v>
+      </c>
+      <c r="C53">
+        <v>4050000</v>
+      </c>
+      <c r="D53">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E53">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>7</v>
+      </c>
+      <c r="J53">
+        <v>2023</v>
+      </c>
+      <c r="K53" s="2">
+        <v>44933</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Waldo Lake_01151818</t>
+        </is>
+      </c>
+      <c r="B54">
+        <v>77</v>
+      </c>
+      <c r="C54">
+        <v>6930000</v>
+      </c>
+      <c r="D54">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E54">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>7</v>
+      </c>
+      <c r="J54">
+        <v>2023</v>
+      </c>
+      <c r="K54" s="2">
+        <v>44933</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Lake Owyhee_01125099</t>
+        </is>
+      </c>
+      <c r="B55">
+        <v>17</v>
+      </c>
+      <c r="C55">
+        <v>1530000</v>
+      </c>
+      <c r="D55">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E55">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>8</v>
+      </c>
+      <c r="J55">
+        <v>2023</v>
+      </c>
+      <c r="K55" s="2">
+        <v>44934</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Wallowa Lake_01151862</t>
+        </is>
+      </c>
+      <c r="B56">
+        <v>18</v>
+      </c>
+      <c r="C56">
+        <v>1620000</v>
+      </c>
+      <c r="D56">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E56">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>8</v>
+      </c>
+      <c r="J56">
+        <v>2023</v>
+      </c>
+      <c r="K56" s="2">
+        <v>44934</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Alkali Lake_01116863</t>
+        </is>
+      </c>
+      <c r="B57">
+        <v>14</v>
+      </c>
+      <c r="C57">
+        <v>1260000</v>
+      </c>
+      <c r="D57">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E57">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>8</v>
+      </c>
+      <c r="J57">
+        <v>2023</v>
+      </c>
+      <c r="K57" s="2">
+        <v>44934</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Crater Lake_01163669</t>
+        </is>
+      </c>
+      <c r="B58">
+        <v>232</v>
+      </c>
+      <c r="C58">
+        <v>20880000</v>
+      </c>
+      <c r="D58">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E58">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>8</v>
+      </c>
+      <c r="J58">
+        <v>2023</v>
+      </c>
+      <c r="K58" s="2">
+        <v>44934</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Howard Prairie Lake_01158895</t>
+        </is>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>360000</v>
+      </c>
+      <c r="D59">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E59">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>8</v>
+      </c>
+      <c r="J59">
+        <v>2023</v>
+      </c>
+      <c r="K59" s="2">
+        <v>44934</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Upper Klamath Lake_01151685</t>
+        </is>
+      </c>
+      <c r="B60">
+        <v>1072</v>
+      </c>
+      <c r="C60">
+        <v>96480000</v>
+      </c>
+      <c r="D60">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E60">
+        <v>194088.640625</v>
+      </c>
+      <c r="F60">
+        <v>187779.063965</v>
+      </c>
+      <c r="G60">
+        <v>8754.81106658</v>
+      </c>
+      <c r="H60">
+        <v>12986.1111746</v>
+      </c>
+      <c r="I60">
+        <v>8</v>
+      </c>
+      <c r="J60">
+        <v>2023</v>
+      </c>
+      <c r="K60" s="2">
+        <v>44934</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Goose Lake_00224325</t>
+        </is>
+      </c>
+      <c r="B61">
+        <v>117</v>
+      </c>
+      <c r="C61">
+        <v>10530000</v>
+      </c>
+      <c r="D61">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E61">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>8</v>
+      </c>
+      <c r="J61">
+        <v>2023</v>
+      </c>
+      <c r="K61" s="2">
+        <v>44934</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Thief Valley Reservoir_01128007</t>
+        </is>
+      </c>
+      <c r="B62">
+        <v>20</v>
+      </c>
+      <c r="C62">
+        <v>1800000</v>
+      </c>
+      <c r="D62">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E62">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>8</v>
+      </c>
+      <c r="J62">
+        <v>2023</v>
+      </c>
+      <c r="K62" s="2">
+        <v>44934</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Lake Billy Chinook_01138120</t>
+        </is>
+      </c>
+      <c r="B63">
+        <v>22</v>
+      </c>
+      <c r="C63">
+        <v>1980000</v>
+      </c>
+      <c r="D63">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E63">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>8</v>
+      </c>
+      <c r="J63">
+        <v>2023</v>
+      </c>
+      <c r="K63" s="2">
+        <v>44934</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Wickiup Reservoir_01161711</t>
+        </is>
+      </c>
+      <c r="B64">
+        <v>60</v>
+      </c>
+      <c r="C64">
+        <v>5400000</v>
+      </c>
+      <c r="D64">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E64">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>8</v>
+      </c>
+      <c r="J64">
+        <v>2023</v>
+      </c>
+      <c r="K64" s="2">
+        <v>44934</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Davis Lake_01140666</t>
+        </is>
+      </c>
+      <c r="B65">
+        <v>29</v>
+      </c>
+      <c r="C65">
+        <v>2610000</v>
+      </c>
+      <c r="D65">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E65">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>8</v>
+      </c>
+      <c r="J65">
+        <v>2023</v>
+      </c>
+      <c r="K65" s="2">
+        <v>44934</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Dorena Lake_01120032</t>
+        </is>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66">
+        <v>270000</v>
+      </c>
+      <c r="D66">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E66">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>8</v>
+      </c>
+      <c r="J66">
+        <v>2023</v>
+      </c>
+      <c r="K66" s="2">
+        <v>44934</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Fern Ridge Lake_01120678</t>
+        </is>
+      </c>
+      <c r="B67">
+        <v>49</v>
+      </c>
+      <c r="C67">
+        <v>4410000</v>
+      </c>
+      <c r="D67">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E67">
+        <v>114815.414062</v>
+      </c>
+      <c r="F67">
+        <v>108505.837402</v>
+      </c>
+      <c r="G67">
+        <v>15551.7087054</v>
+      </c>
+      <c r="H67">
+        <v>22959.9362644</v>
+      </c>
+      <c r="I67">
+        <v>8</v>
+      </c>
+      <c r="J67">
+        <v>2023</v>
+      </c>
+      <c r="K67" s="2">
+        <v>44934</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Hills Creek Lake_01158881</t>
+        </is>
+      </c>
+      <c r="B68">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>540000</v>
+      </c>
+      <c r="D68">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E68">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>8</v>
+      </c>
+      <c r="J68">
+        <v>2023</v>
+      </c>
+      <c r="K68" s="2">
+        <v>44934</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Dexter Reservoir_01119918</t>
+        </is>
+      </c>
+      <c r="B69">
+        <v>20</v>
+      </c>
+      <c r="C69">
+        <v>1800000</v>
+      </c>
+      <c r="D69">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E69">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>8</v>
+      </c>
+      <c r="J69">
+        <v>2023</v>
+      </c>
+      <c r="K69" s="2">
+        <v>44934</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Crump Lake_01119601</t>
+        </is>
+      </c>
+      <c r="B70">
+        <v>15</v>
+      </c>
+      <c r="C70">
+        <v>1350000</v>
+      </c>
+      <c r="D70">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E70">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>8</v>
+      </c>
+      <c r="J70">
+        <v>2023</v>
+      </c>
+      <c r="K70" s="2">
+        <v>44934</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Summer Lake_01150595</t>
+        </is>
+      </c>
+      <c r="B71">
+        <v>9</v>
+      </c>
+      <c r="C71">
+        <v>810000</v>
+      </c>
+      <c r="D71">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E71">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>8</v>
+      </c>
+      <c r="J71">
+        <v>2023</v>
+      </c>
+      <c r="K71" s="2">
+        <v>44934</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Lake Abert_01116755</t>
+        </is>
+      </c>
+      <c r="B72">
+        <v>975</v>
+      </c>
+      <c r="C72">
+        <v>87750000</v>
+      </c>
+      <c r="D72">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E72">
+        <v>128233.140625</v>
+      </c>
+      <c r="F72">
+        <v>121923.563965</v>
+      </c>
+      <c r="G72">
+        <v>8795.156319109999</v>
+      </c>
+      <c r="H72">
+        <v>13035.2119133</v>
+      </c>
+      <c r="I72">
+        <v>8</v>
+      </c>
+      <c r="J72">
+        <v>2023</v>
+      </c>
+      <c r="K72" s="2">
+        <v>44934</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Cultus Lake_01140537</t>
+        </is>
+      </c>
+      <c r="B73">
+        <v>39</v>
+      </c>
+      <c r="C73">
+        <v>3510000</v>
+      </c>
+      <c r="D73">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E73">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>9</v>
+      </c>
+      <c r="J73">
+        <v>2023</v>
+      </c>
+      <c r="K73" s="2">
+        <v>44935</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Alkali Lake_01116863</t>
+        </is>
+      </c>
+      <c r="B74">
+        <v>24</v>
+      </c>
+      <c r="C74">
+        <v>2160000</v>
+      </c>
+      <c r="D74">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E74">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>9</v>
+      </c>
+      <c r="J74">
+        <v>2023</v>
+      </c>
+      <c r="K74" s="2">
+        <v>44935</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Upper Klamath Lake_01151685</t>
+        </is>
+      </c>
+      <c r="B75">
+        <v>2568</v>
+      </c>
+      <c r="C75">
+        <v>231120000</v>
+      </c>
+      <c r="D75">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E75">
+        <v>105681.796875</v>
+      </c>
+      <c r="F75">
+        <v>99372.22021480001</v>
+      </c>
+      <c r="G75">
+        <v>6811.59707841</v>
+      </c>
+      <c r="H75">
+        <v>4833.15722665</v>
+      </c>
+      <c r="I75">
+        <v>9</v>
+      </c>
+      <c r="J75">
+        <v>2023</v>
+      </c>
+      <c r="K75" s="2">
+        <v>44935</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Wickiup Reservoir_01161711</t>
+        </is>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>90000</v>
+      </c>
+      <c r="D76">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E76">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>9</v>
+      </c>
+      <c r="J76">
+        <v>2023</v>
+      </c>
+      <c r="K76" s="2">
+        <v>44935</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Odell Lake_01147159</t>
+        </is>
+      </c>
+      <c r="B77">
+        <v>107</v>
+      </c>
+      <c r="C77">
+        <v>9630000</v>
+      </c>
+      <c r="D77">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E77">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>9</v>
+      </c>
+      <c r="J77">
+        <v>2023</v>
+      </c>
+      <c r="K77" s="2">
+        <v>44935</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Crescent Lake_01158186</t>
+        </is>
+      </c>
+      <c r="B78">
+        <v>61</v>
+      </c>
+      <c r="C78">
+        <v>5490000</v>
+      </c>
+      <c r="D78">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E78">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>9</v>
+      </c>
+      <c r="J78">
+        <v>2023</v>
+      </c>
+      <c r="K78" s="2">
+        <v>44935</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Fern Ridge Lake_01120678</t>
+        </is>
+      </c>
+      <c r="B79">
+        <v>57</v>
+      </c>
+      <c r="C79">
+        <v>5130000</v>
+      </c>
+      <c r="D79">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E79">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>9</v>
+      </c>
+      <c r="J79">
+        <v>2023</v>
+      </c>
+      <c r="K79" s="2">
+        <v>44935</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Foster Lake_01158892</t>
+        </is>
+      </c>
+      <c r="B80">
+        <v>18</v>
+      </c>
+      <c r="C80">
+        <v>1620000</v>
+      </c>
+      <c r="D80">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E80">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>9</v>
+      </c>
+      <c r="J80">
+        <v>2023</v>
+      </c>
+      <c r="K80" s="2">
+        <v>44935</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Waldo Lake_01151818</t>
+        </is>
+      </c>
+      <c r="B81">
+        <v>194</v>
+      </c>
+      <c r="C81">
+        <v>17460000</v>
+      </c>
+      <c r="D81">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E81">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>9</v>
+      </c>
+      <c r="J81">
+        <v>2023</v>
+      </c>
+      <c r="K81" s="2">
+        <v>44935</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Wallowa Lake_01151862</t>
+        </is>
+      </c>
+      <c r="B82">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>450000</v>
+      </c>
+      <c r="D82">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E82">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>10</v>
+      </c>
+      <c r="J82">
+        <v>2023</v>
+      </c>
+      <c r="K82" s="2">
+        <v>44936</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Upper Klamath Lake_01151685</t>
+        </is>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <v>900000</v>
+      </c>
+      <c r="D83">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E83">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>10</v>
+      </c>
+      <c r="J83">
+        <v>2023</v>
+      </c>
+      <c r="K83" s="2">
+        <v>44936</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>McKay Reservoir_01132097</t>
+        </is>
+      </c>
+      <c r="B84">
+        <v>19</v>
+      </c>
+      <c r="C84">
+        <v>1710000</v>
+      </c>
+      <c r="D84">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E84">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>10</v>
+      </c>
+      <c r="J84">
+        <v>2023</v>
+      </c>
+      <c r="K84" s="2">
+        <v>44936</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Waldo Lake_01151818</t>
+        </is>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <v>360000</v>
+      </c>
+      <c r="D85">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E85">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>10</v>
+      </c>
+      <c r="J85">
+        <v>2023</v>
+      </c>
+      <c r="K85" s="2">
+        <v>44936</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Sturgeon Lake_01127681</t>
+        </is>
+      </c>
+      <c r="B86">
+        <v>22</v>
+      </c>
+      <c r="C86">
+        <v>1980000</v>
+      </c>
+      <c r="D86">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E86">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>10</v>
+      </c>
+      <c r="J86">
+        <v>2023</v>
+      </c>
+      <c r="K86" s="2">
+        <v>44936</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Summer Lake_01150595</t>
+        </is>
+      </c>
+      <c r="B87">
+        <v>154</v>
+      </c>
+      <c r="C87">
+        <v>13860000</v>
+      </c>
+      <c r="D87">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E87">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>10</v>
+      </c>
+      <c r="J87">
+        <v>2023</v>
+      </c>
+      <c r="K87" s="2">
+        <v>44936</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Lake Owyhee_01125099</t>
+        </is>
+      </c>
+      <c r="B88">
+        <v>296</v>
+      </c>
+      <c r="C88">
+        <v>26640000</v>
+      </c>
+      <c r="D88">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E88">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>11</v>
+      </c>
+      <c r="J88">
+        <v>2023</v>
+      </c>
+      <c r="K88" s="2">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Brownlee Reservoir_00378278</t>
+        </is>
+      </c>
+      <c r="B89">
+        <v>70</v>
+      </c>
+      <c r="C89">
+        <v>6300000</v>
+      </c>
+      <c r="D89">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E89">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>11</v>
+      </c>
+      <c r="J89">
+        <v>2023</v>
+      </c>
+      <c r="K89" s="2">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Wallowa Lake_01151862</t>
+        </is>
+      </c>
+      <c r="B90">
+        <v>62</v>
+      </c>
+      <c r="C90">
+        <v>5580000</v>
+      </c>
+      <c r="D90">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E90">
+        <v>40179.0898438</v>
+      </c>
+      <c r="F90">
+        <v>33869.5131836</v>
+      </c>
+      <c r="G90">
+        <v>7774.95529076</v>
+      </c>
+      <c r="H90">
+        <v>5703.0481419</v>
+      </c>
+      <c r="I90">
+        <v>11</v>
+      </c>
+      <c r="J90">
+        <v>2023</v>
+      </c>
+      <c r="K90" s="2">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>McKay Reservoir_01132097</t>
+        </is>
+      </c>
+      <c r="B91">
+        <v>24</v>
+      </c>
+      <c r="C91">
+        <v>2160000</v>
+      </c>
+      <c r="D91">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E91">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>11</v>
+      </c>
+      <c r="J91">
+        <v>2023</v>
+      </c>
+      <c r="K91" s="2">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Detroit Lake_01639301</t>
+        </is>
+      </c>
+      <c r="B92">
+        <v>36</v>
+      </c>
+      <c r="C92">
+        <v>3240000</v>
+      </c>
+      <c r="D92">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E92">
+        <v>52966.3710938</v>
+      </c>
+      <c r="F92">
+        <v>46656.7944336</v>
+      </c>
+      <c r="G92">
+        <v>8851.903062609999</v>
+      </c>
+      <c r="H92">
+        <v>8215.05605037</v>
+      </c>
+      <c r="I92">
+        <v>11</v>
+      </c>
+      <c r="J92">
+        <v>2023</v>
+      </c>
+      <c r="K92" s="2">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Sturgeon Lake_01127681</t>
+        </is>
+      </c>
+      <c r="B93">
+        <v>123</v>
+      </c>
+      <c r="C93">
+        <v>11070000</v>
+      </c>
+      <c r="D93">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E93">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>11</v>
+      </c>
+      <c r="J93">
+        <v>2023</v>
+      </c>
+      <c r="K93" s="2">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Willamette River (Marquam Brg to Multnomah Channel)</t>
+        </is>
+      </c>
+      <c r="B94">
+        <v>29</v>
+      </c>
+      <c r="C94">
+        <v>2610000</v>
+      </c>
+      <c r="D94">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E94">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>11</v>
+      </c>
+      <c r="J94">
+        <v>2023</v>
+      </c>
+      <c r="K94" s="2">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Alkali Lake_01116863</t>
+        </is>
+      </c>
+      <c r="B95">
+        <v>9</v>
+      </c>
+      <c r="C95">
+        <v>810000</v>
+      </c>
+      <c r="D95">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E95">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>13</v>
+      </c>
+      <c r="J95">
+        <v>2023</v>
+      </c>
+      <c r="K95" s="2">
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Lake Billy Chinook_01138120</t>
+        </is>
+      </c>
+      <c r="B96">
+        <v>39</v>
+      </c>
+      <c r="C96">
+        <v>3510000</v>
+      </c>
+      <c r="D96">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E96">
+        <v>38018.953125</v>
+      </c>
+      <c r="F96">
+        <v>31709.3764648</v>
+      </c>
+      <c r="G96">
+        <v>7515.62816757</v>
+      </c>
+      <c r="H96">
+        <v>5446.13670337</v>
+      </c>
+      <c r="I96">
+        <v>13</v>
+      </c>
+      <c r="J96">
+        <v>2023</v>
+      </c>
+      <c r="K96" s="2">
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Paulina Lake_01147502</t>
+        </is>
+      </c>
+      <c r="B97">
+        <v>24</v>
+      </c>
+      <c r="C97">
+        <v>2160000</v>
+      </c>
+      <c r="D97">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E97">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>13</v>
+      </c>
+      <c r="J97">
+        <v>2023</v>
+      </c>
+      <c r="K97" s="2">
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Brownlee Reservoir_00378278</t>
+        </is>
+      </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
+      <c r="C98">
+        <v>900000</v>
+      </c>
+      <c r="D98">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E98">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>14</v>
+      </c>
+      <c r="J98">
+        <v>2023</v>
+      </c>
+      <c r="K98" s="2">
+        <v>44940</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Cold Springs Reservoir_01119125</t>
+        </is>
+      </c>
+      <c r="B99">
+        <v>29</v>
+      </c>
+      <c r="C99">
+        <v>2610000</v>
+      </c>
+      <c r="D99">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E99">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>14</v>
+      </c>
+      <c r="J99">
+        <v>2023</v>
+      </c>
+      <c r="K99" s="2">
+        <v>44940</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Lake Umatilla_01513298</t>
+        </is>
+      </c>
+      <c r="B100">
+        <v>13</v>
+      </c>
+      <c r="C100">
+        <v>1170000</v>
+      </c>
+      <c r="D100">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E100">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>14</v>
+      </c>
+      <c r="J100">
+        <v>2023</v>
+      </c>
+      <c r="K100" s="2">
+        <v>44940</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Lake Owyhee_01125099</t>
+        </is>
+      </c>
+      <c r="B101">
+        <v>337</v>
+      </c>
+      <c r="C101">
+        <v>30330000</v>
+      </c>
+      <c r="D101">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E101">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>15</v>
+      </c>
+      <c r="J101">
+        <v>2023</v>
+      </c>
+      <c r="K101" s="2">
+        <v>44941</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Brownlee Reservoir_00378278</t>
+        </is>
+      </c>
+      <c r="B102">
+        <v>395</v>
+      </c>
+      <c r="C102">
+        <v>35550000</v>
+      </c>
+      <c r="D102">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E102">
+        <v>102801.640625</v>
+      </c>
+      <c r="F102">
+        <v>96492.06396480001</v>
+      </c>
+      <c r="G102">
+        <v>6975.36647795</v>
+      </c>
+      <c r="H102">
+        <v>6417.71007546</v>
+      </c>
+      <c r="I102">
+        <v>15</v>
+      </c>
+      <c r="J102">
+        <v>2023</v>
+      </c>
+      <c r="K102" s="2">
+        <v>44941</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Wallowa Lake_01151862</t>
+        </is>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <v>180000</v>
+      </c>
+      <c r="D103">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E103">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>15</v>
+      </c>
+      <c r="J103">
+        <v>2023</v>
+      </c>
+      <c r="K103" s="2">
+        <v>44941</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Alkali Lake_01116863</t>
+        </is>
+      </c>
+      <c r="B104">
+        <v>24</v>
+      </c>
+      <c r="C104">
+        <v>2160000</v>
+      </c>
+      <c r="D104">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E104">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>15</v>
+      </c>
+      <c r="J104">
+        <v>2023</v>
+      </c>
+      <c r="K104" s="2">
+        <v>44941</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Upper Klamath Lake_01151685</t>
+        </is>
+      </c>
+      <c r="B105">
+        <v>313</v>
+      </c>
+      <c r="C105">
+        <v>28170000</v>
+      </c>
+      <c r="D105">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E105">
+        <v>94623.78125</v>
+      </c>
+      <c r="F105">
+        <v>88314.20458980001</v>
+      </c>
+      <c r="G105">
+        <v>7071.71855812</v>
+      </c>
+      <c r="H105">
+        <v>5982.48118862</v>
+      </c>
+      <c r="I105">
+        <v>15</v>
+      </c>
+      <c r="J105">
+        <v>2023</v>
+      </c>
+      <c r="K105" s="2">
+        <v>44941</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Warm Springs Reservoir_01128656</t>
+        </is>
+      </c>
+      <c r="B106">
+        <v>9</v>
+      </c>
+      <c r="C106">
+        <v>810000</v>
+      </c>
+      <c r="D106">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E106">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>15</v>
+      </c>
+      <c r="J106">
+        <v>2023</v>
+      </c>
+      <c r="K106" s="2">
+        <v>44941</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Upper Cow Lake_01119431</t>
+        </is>
+      </c>
+      <c r="B107">
+        <v>32</v>
+      </c>
+      <c r="C107">
+        <v>2880000</v>
+      </c>
+      <c r="D107">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E107">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>15</v>
+      </c>
+      <c r="J107">
+        <v>2023</v>
+      </c>
+      <c r="K107" s="2">
+        <v>44941</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Lake Owyhee_01125099</t>
+        </is>
+      </c>
+      <c r="B108">
+        <v>244</v>
+      </c>
+      <c r="C108">
+        <v>21960000</v>
+      </c>
+      <c r="D108">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E108">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>16</v>
+      </c>
+      <c r="J108">
+        <v>2023</v>
+      </c>
+      <c r="K108" s="2">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Brownlee Reservoir_00378278</t>
+        </is>
+      </c>
+      <c r="B109">
+        <v>474</v>
+      </c>
+      <c r="C109">
+        <v>42660000</v>
+      </c>
+      <c r="D109">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E109">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>16</v>
+      </c>
+      <c r="J109">
+        <v>2023</v>
+      </c>
+      <c r="K109" s="2">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Wallowa Lake_01151862</t>
+        </is>
+      </c>
+      <c r="B110">
+        <v>65</v>
+      </c>
+      <c r="C110">
+        <v>5850000</v>
+      </c>
+      <c r="D110">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E110">
+        <v>36982.84375</v>
+      </c>
+      <c r="F110">
+        <v>30673.2670898</v>
+      </c>
+      <c r="G110">
+        <v>7209.48677133</v>
+      </c>
+      <c r="H110">
+        <v>4442.1900487</v>
+      </c>
+      <c r="I110">
+        <v>16</v>
+      </c>
+      <c r="J110">
+        <v>2023</v>
+      </c>
+      <c r="K110" s="2">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Cultus Lake_01140537</t>
+        </is>
+      </c>
+      <c r="B111">
+        <v>22</v>
+      </c>
+      <c r="C111">
+        <v>1980000</v>
+      </c>
+      <c r="D111">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E111">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>16</v>
+      </c>
+      <c r="J111">
+        <v>2023</v>
+      </c>
+      <c r="K111" s="2">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Green Peter Lake_01158878</t>
+        </is>
+      </c>
+      <c r="B112">
+        <v>10</v>
+      </c>
+      <c r="C112">
+        <v>900000</v>
+      </c>
+      <c r="D112">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E112">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>16</v>
+      </c>
+      <c r="J112">
+        <v>2023</v>
+      </c>
+      <c r="K112" s="2">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Malheur Lake_01123710</t>
+        </is>
+      </c>
+      <c r="B113">
+        <v>91</v>
+      </c>
+      <c r="C113">
+        <v>8190000</v>
+      </c>
+      <c r="D113">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E113">
+        <v>124738.414062</v>
+      </c>
+      <c r="F113">
+        <v>118428.837402</v>
+      </c>
+      <c r="G113">
+        <v>9961.67085015</v>
+      </c>
+      <c r="H113">
+        <v>15722.7239767</v>
+      </c>
+      <c r="I113">
+        <v>16</v>
+      </c>
+      <c r="J113">
+        <v>2023</v>
+      </c>
+      <c r="K113" s="2">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Alkali Lake_01116863</t>
+        </is>
+      </c>
+      <c r="B114">
+        <v>27</v>
+      </c>
+      <c r="C114">
+        <v>2430000</v>
+      </c>
+      <c r="D114">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E114">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>16</v>
+      </c>
+      <c r="J114">
+        <v>2023</v>
+      </c>
+      <c r="K114" s="2">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Aspen Lake_01161255</t>
+        </is>
+      </c>
+      <c r="B115">
+        <v>10</v>
+      </c>
+      <c r="C115">
+        <v>900000</v>
+      </c>
+      <c r="D115">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E115">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>16</v>
+      </c>
+      <c r="J115">
+        <v>2023</v>
+      </c>
+      <c r="K115" s="2">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Crater Lake_01163669</t>
+        </is>
+      </c>
+      <c r="B116">
+        <v>58</v>
+      </c>
+      <c r="C116">
+        <v>5220000</v>
+      </c>
+      <c r="D116">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E116">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>16</v>
+      </c>
+      <c r="J116">
+        <v>2023</v>
+      </c>
+      <c r="K116" s="2">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Howard Prairie Lake_01158895</t>
+        </is>
+      </c>
+      <c r="B117">
+        <v>31</v>
+      </c>
+      <c r="C117">
+        <v>2790000</v>
+      </c>
+      <c r="D117">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E117">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>16</v>
+      </c>
+      <c r="J117">
+        <v>2023</v>
+      </c>
+      <c r="K117" s="2">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Upper Klamath Lake_01151685</t>
+        </is>
+      </c>
+      <c r="B118">
+        <v>2825</v>
+      </c>
+      <c r="C118">
+        <v>254250000</v>
+      </c>
+      <c r="D118">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E118">
+        <v>164437.203125</v>
+      </c>
+      <c r="F118">
+        <v>158127.626465</v>
+      </c>
+      <c r="G118">
+        <v>7375.29083898</v>
+      </c>
+      <c r="H118">
+        <v>8858.152724809999</v>
+      </c>
+      <c r="I118">
+        <v>16</v>
+      </c>
+      <c r="J118">
+        <v>2023</v>
+      </c>
+      <c r="K118" s="2">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Thief Valley Reservoir_01128007</t>
+        </is>
+      </c>
+      <c r="B119">
+        <v>22</v>
+      </c>
+      <c r="C119">
+        <v>1980000</v>
+      </c>
+      <c r="D119">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E119">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>16</v>
+      </c>
+      <c r="J119">
+        <v>2023</v>
+      </c>
+      <c r="K119" s="2">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>McKay Reservoir_01132097</t>
+        </is>
+      </c>
+      <c r="B120">
+        <v>27</v>
+      </c>
+      <c r="C120">
+        <v>2430000</v>
+      </c>
+      <c r="D120">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E120">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>16</v>
+      </c>
+      <c r="J120">
+        <v>2023</v>
+      </c>
+      <c r="K120" s="2">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Wickiup Reservoir_01161711</t>
+        </is>
+      </c>
+      <c r="B121">
+        <v>39</v>
+      </c>
+      <c r="C121">
+        <v>3510000</v>
+      </c>
+      <c r="D121">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E121">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>16</v>
+      </c>
+      <c r="J121">
+        <v>2023</v>
+      </c>
+      <c r="K121" s="2">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Davis Lake_01140666</t>
+        </is>
+      </c>
+      <c r="B122">
+        <v>12</v>
+      </c>
+      <c r="C122">
+        <v>1080000</v>
+      </c>
+      <c r="D122">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E122">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>16</v>
+      </c>
+      <c r="J122">
+        <v>2023</v>
+      </c>
+      <c r="K122" s="2">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Odell Lake_01147159</t>
+        </is>
+      </c>
+      <c r="B123">
+        <v>109</v>
+      </c>
+      <c r="C123">
+        <v>9810000</v>
+      </c>
+      <c r="D123">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E123">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>16</v>
+      </c>
+      <c r="J123">
+        <v>2023</v>
+      </c>
+      <c r="K123" s="2">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Cold Springs Reservoir_01119125</t>
+        </is>
+      </c>
+      <c r="B124">
+        <v>29</v>
+      </c>
+      <c r="C124">
+        <v>2610000</v>
+      </c>
+      <c r="D124">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E124">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>16</v>
+      </c>
+      <c r="J124">
+        <v>2023</v>
+      </c>
+      <c r="K124" s="2">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Lake Umatilla_01513298</t>
+        </is>
+      </c>
+      <c r="B125">
+        <v>651</v>
+      </c>
+      <c r="C125">
+        <v>58590000</v>
+      </c>
+      <c r="D125">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E125">
+        <v>483059.09375</v>
+      </c>
+      <c r="F125">
+        <v>476749.51709</v>
+      </c>
+      <c r="G125">
+        <v>12961.4243967</v>
+      </c>
+      <c r="H125">
+        <v>33385.9940957</v>
+      </c>
+      <c r="I125">
+        <v>16</v>
+      </c>
+      <c r="J125">
+        <v>2023</v>
+      </c>
+      <c r="K125" s="2">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Fern Ridge Lake_01120678</t>
+        </is>
+      </c>
+      <c r="B126">
+        <v>74</v>
+      </c>
+      <c r="C126">
+        <v>6660000</v>
+      </c>
+      <c r="D126">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E126">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>16</v>
+      </c>
+      <c r="J126">
+        <v>2023</v>
+      </c>
+      <c r="K126" s="2">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Foster Lake_01158892</t>
+        </is>
+      </c>
+      <c r="B127">
+        <v>28</v>
+      </c>
+      <c r="C127">
+        <v>2520000</v>
+      </c>
+      <c r="D127">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E127">
+        <v>82413.8828125</v>
+      </c>
+      <c r="F127">
+        <v>76104.30615230001</v>
+      </c>
+      <c r="G127">
+        <v>10237.213065</v>
+      </c>
+      <c r="H127">
+        <v>15244.5214536</v>
+      </c>
+      <c r="I127">
+        <v>16</v>
+      </c>
+      <c r="J127">
+        <v>2023</v>
+      </c>
+      <c r="K127" s="2">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Hills Creek Lake_01158881</t>
+        </is>
+      </c>
+      <c r="B128">
+        <v>20</v>
+      </c>
+      <c r="C128">
+        <v>1800000</v>
+      </c>
+      <c r="D128">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E128">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>16</v>
+      </c>
+      <c r="J128">
+        <v>2023</v>
+      </c>
+      <c r="K128" s="2">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Fall Creek Lake_01158871</t>
+        </is>
+      </c>
+      <c r="B129">
+        <v>39</v>
+      </c>
+      <c r="C129">
+        <v>3510000</v>
+      </c>
+      <c r="D129">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E129">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>16</v>
+      </c>
+      <c r="J129">
+        <v>2023</v>
+      </c>
+      <c r="K129" s="2">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Waldo Lake_01151818</t>
+        </is>
+      </c>
+      <c r="B130">
+        <v>236</v>
+      </c>
+      <c r="C130">
+        <v>21240000</v>
+      </c>
+      <c r="D130">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E130">
+        <v>28054.3496094</v>
+      </c>
+      <c r="F130">
+        <v>21744.7729492</v>
+      </c>
+      <c r="G130">
+        <v>6579.1104157</v>
+      </c>
+      <c r="H130">
+        <v>1864.81426133</v>
+      </c>
+      <c r="I130">
+        <v>16</v>
+      </c>
+      <c r="J130">
+        <v>2023</v>
+      </c>
+      <c r="K130" s="2">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Lost Creek Lake_01158890</t>
+        </is>
+      </c>
+      <c r="B131">
+        <v>77</v>
+      </c>
+      <c r="C131">
+        <v>6930000</v>
+      </c>
+      <c r="D131">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E131">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>16</v>
+      </c>
+      <c r="J131">
+        <v>2023</v>
+      </c>
+      <c r="K131" s="2">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Siltcoos Lake_01158483</t>
+        </is>
+      </c>
+      <c r="B132">
+        <v>3</v>
+      </c>
+      <c r="C132">
+        <v>270000</v>
+      </c>
+      <c r="D132">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E132">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>16</v>
+      </c>
+      <c r="J132">
+        <v>2023</v>
+      </c>
+      <c r="K132" s="2">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Lake Abert_01116755</t>
+        </is>
+      </c>
+      <c r="B133">
+        <v>51</v>
+      </c>
+      <c r="C133">
+        <v>4590000</v>
+      </c>
+      <c r="D133">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E133">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>16</v>
+      </c>
+      <c r="J133">
+        <v>2023</v>
+      </c>
+      <c r="K133" s="2">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Willamette River (Marquam Brg to Multnomah Channel)</t>
+        </is>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <v>270000</v>
+      </c>
+      <c r="D134">
+        <v>6309.57666016</v>
+      </c>
+      <c r="E134">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>6309.57666016</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>16</v>
+      </c>
+      <c r="J134">
+        <v>2023</v>
+      </c>
+      <c r="K134" s="2">
+        <v>44942</v>
       </c>
     </row>
   </sheetData>
